--- a/medicine/Enfance/Michel_mène_l'enquête/Michel_mène_l'enquête.xlsx
+++ b/medicine/Enfance/Michel_mène_l'enquête/Michel_mène_l'enquête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_m%C3%A8ne_l%27enqu%C3%AAte</t>
+          <t>Michel_mène_l'enquête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Michel mène l'enquête est le premier roman de la série Michel par Georges Bayard. Ce roman a été édité pour la première fois dans la Bibliothèque verte en 1958 sous le no 40 de la collection. L'épisode suivant est Michel et la Falaise mystérieuse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel_m%C3%A8ne_l%27enqu%C3%AAte</t>
+          <t>Michel_mène_l'enquête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À La Marguillerie, grande bâtisse classée monument historique, les jeunes jumeaux Marie-France et Yves Thérais sont bien décidés à emprunter une statuette égyptienne représentant la déesse Isis, que l'antiquaire Anselme Bouchard vient juste de vendre. Leur projet est de montrer l'objet à leur classe. À cette fin, ils fouillent la maison familiale, à la recherche d'une petite valise pour transporter l'objet. 
 La petite valise idéale se trouve appartenir à Daniel, leur cousin, qui s'en sert pour ranger sa collection de timbres. Les jumeaux s'emparent de l’objet en cachette de leur cousin, avec l'intention de la rapporter à son propriétaire le lendemain. Plus tard, en début d'après-midi, c'est le même succès pour se faire remettre la statuette d'Isis par un dénommé Arthur, en l'absence de l'antiquaire Bouchard. Mais lorsque les jeunes jumeaux reviennent rendre la statuette, le rideau de la boutique est descendu, et personne ne vient leur ouvrir. Les enfants ramènent donc l'objet à leur maison. De ce fait, leur cousin Daniel et leur grand frère Michel la découvrent.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michel_m%C3%A8ne_l%27enqu%C3%AAte</t>
+          <t>Michel_mène_l'enquête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Thérais, grand, brun (cheveux ondulés), front haut, visage intelligent et souriant, menton un peu carré volontaire, portrait de son père Lucien.
 Marie-France Thérais, la petite sœur de Michel, sœur jumelle de Yves.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michel_m%C3%A8ne_l%27enqu%C3%AAte</t>
+          <t>Michel_mène_l'enquête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1958 : Bibliothèque verte, cartonné no 40, texte original. Illustré par Philippe Daure.
 1965 : Bibliothèque verte, cartonné (dos vert) no 40, texte original. Nouvelle couverture de Philippe Daure.
